--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Sfrp1-Fzd6.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Sfrp1-Fzd6.xlsx
@@ -82,10 +82,10 @@
     <t>FAPs</t>
   </si>
   <si>
-    <t>Inflammatory-Mac</t>
-  </si>
-  <si>
     <t>MuSCs</t>
+  </si>
+  <si>
+    <t>Neutrophils</t>
   </si>
   <si>
     <t>Sfrp1</t>
@@ -537,16 +537,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.381694</v>
+        <v>0.2675626666666667</v>
       </c>
       <c r="H2">
-        <v>1.145082</v>
+        <v>0.802688</v>
       </c>
       <c r="I2">
-        <v>0.01915224902469766</v>
+        <v>0.01337792263105189</v>
       </c>
       <c r="J2">
-        <v>0.01915224902469766</v>
+        <v>0.01337792263105189</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>13.877148</v>
+        <v>10.045207</v>
       </c>
       <c r="N2">
-        <v>41.631444</v>
+        <v>30.135621</v>
       </c>
       <c r="O2">
-        <v>0.9551716529386821</v>
+        <v>0.9365108453707793</v>
       </c>
       <c r="P2">
-        <v>0.9551716529386822</v>
+        <v>0.9365108453707794</v>
       </c>
       <c r="Q2">
-        <v>5.296824128712</v>
+        <v>2.687722372138666</v>
       </c>
       <c r="R2">
-        <v>47.671417158408</v>
+        <v>24.189501349248</v>
       </c>
       <c r="S2">
-        <v>0.01829368535841372</v>
+        <v>0.01252856963251129</v>
       </c>
       <c r="T2">
-        <v>0.01829368535841373</v>
+        <v>0.01252856963251129</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.381694</v>
+        <v>0.2675626666666667</v>
       </c>
       <c r="H3">
-        <v>1.145082</v>
+        <v>0.802688</v>
       </c>
       <c r="I3">
-        <v>0.01915224902469766</v>
+        <v>0.01337792263105189</v>
       </c>
       <c r="J3">
-        <v>0.01915224902469766</v>
+        <v>0.01337792263105189</v>
       </c>
       <c r="K3">
         <v>2</v>
@@ -623,22 +623,22 @@
         <v>1.277978</v>
       </c>
       <c r="O3">
-        <v>0.02932130719941569</v>
+        <v>0.03971513502725754</v>
       </c>
       <c r="P3">
-        <v>0.02932130719941569</v>
+        <v>0.03971513502725754</v>
       </c>
       <c r="Q3">
-        <v>0.1625988449106667</v>
+        <v>0.1139797338737778</v>
       </c>
       <c r="R3">
-        <v>1.463389604196</v>
+        <v>1.025817604864</v>
       </c>
       <c r="S3">
-        <v>0.0005615689772128696</v>
+        <v>0.0005313060036764304</v>
       </c>
       <c r="T3">
-        <v>0.0005615689772128696</v>
+        <v>0.0005313060036764304</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,7 +652,7 @@
         <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E4">
         <v>2</v>
@@ -661,16 +661,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.381694</v>
+        <v>0.2675626666666667</v>
       </c>
       <c r="H4">
-        <v>1.145082</v>
+        <v>0.802688</v>
       </c>
       <c r="I4">
-        <v>0.01915224902469766</v>
+        <v>0.01337792263105189</v>
       </c>
       <c r="J4">
-        <v>0.01915224902469766</v>
+        <v>0.01337792263105189</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.225293</v>
+        <v>0.255005</v>
       </c>
       <c r="N4">
-        <v>0.675879</v>
+        <v>0.765015</v>
       </c>
       <c r="O4">
-        <v>0.01550703986190206</v>
+        <v>0.02377401960196297</v>
       </c>
       <c r="P4">
-        <v>0.01550703986190207</v>
+        <v>0.02377401960196297</v>
       </c>
       <c r="Q4">
-        <v>0.08599298634199999</v>
+        <v>0.06822981781333333</v>
       </c>
       <c r="R4">
-        <v>0.773936877078</v>
+        <v>0.61406836032</v>
       </c>
       <c r="S4">
-        <v>0.0002969946890710615</v>
+        <v>0.0003180469948641717</v>
       </c>
       <c r="T4">
-        <v>0.0002969946890710615</v>
+        <v>0.0003180469948641717</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,10 +729,10 @@
         <v>56.855887</v>
       </c>
       <c r="I5">
-        <v>0.9509520770949769</v>
+        <v>0.9475831922313891</v>
       </c>
       <c r="J5">
-        <v>0.9509520770949768</v>
+        <v>0.947583192231389</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>13.877148</v>
+        <v>10.045207</v>
       </c>
       <c r="N5">
-        <v>41.631444</v>
+        <v>30.135621</v>
       </c>
       <c r="O5">
-        <v>0.9551716529386821</v>
+        <v>0.9365108453707793</v>
       </c>
       <c r="P5">
-        <v>0.9551716529386822</v>
+        <v>0.9365108453707794</v>
       </c>
       <c r="Q5">
-        <v>262.999186190092</v>
+        <v>190.3763846945363</v>
       </c>
       <c r="R5">
-        <v>2366.992675710828</v>
+        <v>1713.387462250827</v>
       </c>
       <c r="S5">
-        <v>0.9083224673442821</v>
+        <v>0.8874219364157599</v>
       </c>
       <c r="T5">
-        <v>0.9083224673442821</v>
+        <v>0.8874219364157599</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>56.855887</v>
       </c>
       <c r="I6">
-        <v>0.9509520770949769</v>
+        <v>0.9475831922313891</v>
       </c>
       <c r="J6">
-        <v>0.9509520770949768</v>
+        <v>0.947583192231389</v>
       </c>
       <c r="K6">
         <v>2</v>
@@ -809,10 +809,10 @@
         <v>1.277978</v>
       </c>
       <c r="O6">
-        <v>0.02932130719941569</v>
+        <v>0.03971513502725754</v>
       </c>
       <c r="P6">
-        <v>0.02932130719941569</v>
+        <v>0.03971513502725754</v>
       </c>
       <c r="Q6">
         <v>8.07339697294289</v>
@@ -821,10 +821,10 @@
         <v>72.660572756486</v>
       </c>
       <c r="S6">
-        <v>0.02788315798442425</v>
+        <v>0.03763339442902936</v>
       </c>
       <c r="T6">
-        <v>0.02788315798442425</v>
+        <v>0.03763339442902935</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,7 +838,7 @@
         <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -853,10 +853,10 @@
         <v>56.855887</v>
       </c>
       <c r="I7">
-        <v>0.9509520770949769</v>
+        <v>0.9475831922313891</v>
       </c>
       <c r="J7">
-        <v>0.9509520770949768</v>
+        <v>0.947583192231389</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -865,28 +865,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.225293</v>
+        <v>0.255005</v>
       </c>
       <c r="N7">
-        <v>0.675879</v>
+        <v>0.765015</v>
       </c>
       <c r="O7">
-        <v>0.01550703986190206</v>
+        <v>0.02377401960196297</v>
       </c>
       <c r="P7">
-        <v>0.01550703986190207</v>
+        <v>0.02377401960196297</v>
       </c>
       <c r="Q7">
-        <v>4.269744449963667</v>
+        <v>4.832845154811666</v>
       </c>
       <c r="R7">
-        <v>38.427700049673</v>
+        <v>43.495606393305</v>
       </c>
       <c r="S7">
-        <v>0.01474645176627037</v>
+        <v>0.02252786138659969</v>
       </c>
       <c r="T7">
-        <v>0.01474645176627037</v>
+        <v>0.02252786138659968</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,22 +903,22 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G8">
-        <v>0.04782733333333333</v>
+        <v>0.7737046666666667</v>
       </c>
       <c r="H8">
-        <v>0.143482</v>
+        <v>2.321114</v>
       </c>
       <c r="I8">
-        <v>0.002399830749729425</v>
+        <v>0.03868462405050454</v>
       </c>
       <c r="J8">
-        <v>0.002399830749729425</v>
+        <v>0.03868462405050453</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>13.877148</v>
+        <v>10.045207</v>
       </c>
       <c r="N8">
-        <v>41.631444</v>
+        <v>30.135621</v>
       </c>
       <c r="O8">
-        <v>0.9551716529386821</v>
+        <v>0.9365108453707793</v>
       </c>
       <c r="P8">
-        <v>0.9551716529386822</v>
+        <v>0.9365108453707794</v>
       </c>
       <c r="Q8">
-        <v>0.663706983112</v>
+        <v>7.772023533532667</v>
       </c>
       <c r="R8">
-        <v>5.973362848008001</v>
+        <v>69.948211801794</v>
       </c>
       <c r="S8">
-        <v>0.002292250303992131</v>
+        <v>0.03622856997238879</v>
       </c>
       <c r="T8">
-        <v>0.002292250303992132</v>
+        <v>0.03622856997238878</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,22 +965,22 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G9">
-        <v>0.04782733333333333</v>
+        <v>0.7737046666666667</v>
       </c>
       <c r="H9">
-        <v>0.143482</v>
+        <v>2.321114</v>
       </c>
       <c r="I9">
-        <v>0.002399830749729425</v>
+        <v>0.03868462405050454</v>
       </c>
       <c r="J9">
-        <v>0.002399830749729425</v>
+        <v>0.03868462405050453</v>
       </c>
       <c r="K9">
         <v>2</v>
@@ -995,22 +995,22 @@
         <v>1.277978</v>
       </c>
       <c r="O9">
-        <v>0.02932130719941569</v>
+        <v>0.03971513502725754</v>
       </c>
       <c r="P9">
-        <v>0.02932130719941569</v>
+        <v>0.03971513502725754</v>
       </c>
       <c r="Q9">
-        <v>0.02037409326622222</v>
+        <v>0.3295925141657778</v>
       </c>
       <c r="R9">
-        <v>0.183366839396</v>
+        <v>2.966332627492</v>
       </c>
       <c r="S9">
-        <v>7.036617463942053E-05</v>
+        <v>0.001536365067644482</v>
       </c>
       <c r="T9">
-        <v>7.036617463942054E-05</v>
+        <v>0.001536365067644482</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,25 +1024,25 @@
         <v>25</v>
       </c>
       <c r="D10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G10">
-        <v>0.04782733333333333</v>
+        <v>0.7737046666666667</v>
       </c>
       <c r="H10">
-        <v>0.143482</v>
+        <v>2.321114</v>
       </c>
       <c r="I10">
-        <v>0.002399830749729425</v>
+        <v>0.03868462405050454</v>
       </c>
       <c r="J10">
-        <v>0.002399830749729425</v>
+        <v>0.03868462405050453</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.225293</v>
+        <v>0.255005</v>
       </c>
       <c r="N10">
-        <v>0.675879</v>
+        <v>0.765015</v>
       </c>
       <c r="O10">
-        <v>0.01550703986190206</v>
+        <v>0.02377401960196297</v>
       </c>
       <c r="P10">
-        <v>0.01550703986190207</v>
+        <v>0.02377401960196297</v>
       </c>
       <c r="Q10">
-        <v>0.01077516340866667</v>
+        <v>0.1972985585233333</v>
       </c>
       <c r="R10">
-        <v>0.096976470678</v>
+        <v>1.77568702671</v>
       </c>
       <c r="S10">
-        <v>3.72142710978725E-05</v>
+        <v>0.0009196890104712629</v>
       </c>
       <c r="T10">
-        <v>3.721427109787251E-05</v>
+        <v>0.0009196890104712628</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1089,22 +1089,22 @@
         <v>20</v>
       </c>
       <c r="E11">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G11">
-        <v>0.5479773333333333</v>
+        <v>0.007085333333333333</v>
       </c>
       <c r="H11">
-        <v>1.643932</v>
+        <v>0.021256</v>
       </c>
       <c r="I11">
-        <v>0.02749584313059612</v>
+        <v>0.0003542610870545456</v>
       </c>
       <c r="J11">
-        <v>0.02749584313059612</v>
+        <v>0.0003542610870545455</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1113,28 +1113,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>13.877148</v>
+        <v>10.045207</v>
       </c>
       <c r="N11">
-        <v>41.631444</v>
+        <v>30.135621</v>
       </c>
       <c r="O11">
-        <v>0.9551716529386821</v>
+        <v>0.9365108453707793</v>
       </c>
       <c r="P11">
-        <v>0.9551716529386822</v>
+        <v>0.9365108453707794</v>
       </c>
       <c r="Q11">
-        <v>7.604362555312</v>
+        <v>0.07117363999733332</v>
       </c>
       <c r="R11">
-        <v>68.439262997808</v>
+        <v>0.640562759976</v>
       </c>
       <c r="S11">
-        <v>0.02626324993199421</v>
+        <v>0.0003317693501194237</v>
       </c>
       <c r="T11">
-        <v>0.02626324993199421</v>
+        <v>0.0003317693501194237</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,22 +1151,22 @@
         <v>21</v>
       </c>
       <c r="E12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G12">
-        <v>0.5479773333333333</v>
+        <v>0.007085333333333333</v>
       </c>
       <c r="H12">
-        <v>1.643932</v>
+        <v>0.021256</v>
       </c>
       <c r="I12">
-        <v>0.02749584313059612</v>
+        <v>0.0003542610870545456</v>
       </c>
       <c r="J12">
-        <v>0.02749584313059612</v>
+        <v>0.0003542610870545455</v>
       </c>
       <c r="K12">
         <v>2</v>
@@ -1181,22 +1181,22 @@
         <v>1.277978</v>
       </c>
       <c r="O12">
-        <v>0.02932130719941569</v>
+        <v>0.03971513502725754</v>
       </c>
       <c r="P12">
-        <v>0.02932130719941569</v>
+        <v>0.03971513502725754</v>
       </c>
       <c r="Q12">
-        <v>0.2334343254995556</v>
+        <v>0.003018300040888889</v>
       </c>
       <c r="R12">
-        <v>2.100908929496</v>
+        <v>0.027164700368</v>
       </c>
       <c r="S12">
-        <v>0.0008062140631391525</v>
+        <v>1.406952690727432E-05</v>
       </c>
       <c r="T12">
-        <v>0.0008062140631391525</v>
+        <v>1.406952690727431E-05</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,25 +1210,25 @@
         <v>25</v>
       </c>
       <c r="D13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E13">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F13">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G13">
-        <v>0.5479773333333333</v>
+        <v>0.007085333333333333</v>
       </c>
       <c r="H13">
-        <v>1.643932</v>
+        <v>0.021256</v>
       </c>
       <c r="I13">
-        <v>0.02749584313059612</v>
+        <v>0.0003542610870545456</v>
       </c>
       <c r="J13">
-        <v>0.02749584313059612</v>
+        <v>0.0003542610870545455</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.225293</v>
+        <v>0.255005</v>
       </c>
       <c r="N13">
-        <v>0.675879</v>
+        <v>0.765015</v>
       </c>
       <c r="O13">
-        <v>0.01550703986190206</v>
+        <v>0.02377401960196297</v>
       </c>
       <c r="P13">
-        <v>0.01550703986190207</v>
+        <v>0.02377401960196297</v>
       </c>
       <c r="Q13">
-        <v>0.1234554573586667</v>
+        <v>0.001806795426666667</v>
       </c>
       <c r="R13">
-        <v>1.111099116228</v>
+        <v>0.01626115884</v>
       </c>
       <c r="S13">
-        <v>0.0004263791354627601</v>
+        <v>8.422210027847475E-06</v>
       </c>
       <c r="T13">
-        <v>0.0004263791354627601</v>
+        <v>8.422210027847473E-06</v>
       </c>
     </row>
   </sheetData>
